--- a/biology/Zoologie/Hexapodibiidae/Hexapodibiidae.xlsx
+++ b/biology/Zoologie/Hexapodibiidae/Hexapodibiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hexapodibiidae sont une famille de tardigrades. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2016[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2016 :
 Haplohexapodibius Pilato &amp; Beasley, 1987
 Haplomacrobiotus May, 1948
 Hexapodibius Pilato, 1969
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cesari, Vecchi, Palmer, Bertolani, Pilato, Rebecchi &amp; Guidetti, 2016 : What if the claws are reduced? Morphological and molecular phylogenetic relationships of the genus Haplomacrobiotus May, 1948 (Eutardigrada, Parachela). Zoological Journal of the Linnean Society, vol. 178, no 4, p. 819–827.</t>
         </is>
